--- a/docs/詳細設計書/詳細設計書_分類情報画面_MVC①.xlsx
+++ b/docs/詳細設計書/詳細設計書_分類情報画面_MVC①.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/CTC/設計/分類情報管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DIGITAL OJT\詳細設計書修正\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C20496-C8FF-F64E-B611-CAAF98DC2975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4300" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="1" r:id="rId1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -261,34 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分類情報の一覧の確認および、分類情報の新規作成/更新/削除が行える。</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクゼィオ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>在庫情報の分類を管理する画面</t>
     <rPh sb="0" eb="2">
       <t>ザイコ</t>
@@ -371,12 +342,26 @@
     <t>IT01F003</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>溝口</t>
+    <rPh sb="0" eb="2">
+      <t>ミゾグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Hello World」と出力する。</t>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +735,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,9 +783,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,6 +849,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,16 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -909,35 +927,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,32 +1335,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A36A9F4-38DA-8548-94CF-E223071B437C}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1368,16 +1368,16 @@
       <c r="Q1" s="41"/>
       <c r="R1" s="41"/>
       <c r="S1" s="41"/>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="46"/>
       <c r="AB1" s="41" t="s">
         <v>4</v>
       </c>
@@ -1394,28 +1394,28 @@
       </c>
       <c r="AJ1" s="41"/>
       <c r="AK1" s="41"/>
-      <c r="AL1" s="57">
+      <c r="AL1" s="42">
         <v>45566</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="41" t="s">
         <v>1</v>
       </c>
@@ -1423,16 +1423,16 @@
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="46"/>
       <c r="AB2" s="41"/>
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
@@ -1443,26 +1443,26 @@
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>
       <c r="AK2" s="41"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
       <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
       <c r="T3" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="38"/>
       <c r="V3" s="38"/>
@@ -1485,7 +1485,9 @@
       </c>
       <c r="AC3" s="41"/>
       <c r="AD3" s="41"/>
-      <c r="AE3" s="38"/>
+      <c r="AE3" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
       <c r="AH3" s="38"/>
@@ -1494,26 +1496,28 @@
       </c>
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
+      <c r="AL3" s="42">
+        <v>45614</v>
+      </c>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="41" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1526,7 @@
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
       <c r="T4" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U4" s="38"/>
       <c r="V4" s="38"/>
@@ -1541,12 +1545,12 @@
       <c r="AI4" s="41"/>
       <c r="AJ4" s="41"/>
       <c r="AK4" s="41"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="39" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1599,7 @@
       <c r="AN5" s="39"/>
       <c r="AO5" s="39"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1619,7 +1623,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="5"/>
       <c r="W6" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
@@ -1640,12 +1644,10 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="W7" s="22"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1661,16 +1663,19 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="14"/>
-      <c r="AM7" s="6"/>
-      <c r="AO7" s="7"/>
-    </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+      <c r="AM7" s="109">
+        <v>45614</v>
+      </c>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="108"/>
+    </row>
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="V8" s="7"/>
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="22"/>
@@ -1692,7 +1697,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="V10" s="7"/>
       <c r="W10" s="22"/>
@@ -1714,7 +1719,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="V11" s="7"/>
       <c r="W11" s="22"/>
@@ -1736,7 +1741,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="V12" s="7"/>
       <c r="W12" s="22"/>
@@ -1758,7 +1763,7 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="V13" s="7"/>
       <c r="W13" s="22"/>
@@ -1780,7 +1785,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="V14" s="7"/>
       <c r="W14" s="22"/>
@@ -1802,7 +1807,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="V15" s="7"/>
       <c r="W15" s="22"/>
@@ -1824,7 +1829,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="22"/>
@@ -1846,7 +1851,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="22"/>
@@ -1868,7 +1873,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="22"/>
@@ -1890,7 +1895,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1933,21 +1938,21 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="10"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="39"/>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="39" t="s">
         <v>13</v>
       </c>
@@ -1964,38 +1969,36 @@
       <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="46" t="s">
+      <c r="Q20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-    </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="38">
-        <v>1</v>
-      </c>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+    </row>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="38"/>
       <c r="B21" s="40"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -2037,7 +2040,7 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="19"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="38"/>
       <c r="B22" s="40"/>
       <c r="C22" s="17"/>
@@ -2080,7 +2083,7 @@
       <c r="AN22" s="18"/>
       <c r="AO22" s="19"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="38"/>
       <c r="B23" s="40"/>
       <c r="C23" s="17"/>
@@ -2123,7 +2126,7 @@
       <c r="AN23" s="18"/>
       <c r="AO23" s="19"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="17"/>
@@ -2166,7 +2169,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="19"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="17"/>
@@ -2209,7 +2212,7 @@
       <c r="AN25" s="18"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="17"/>
@@ -2252,7 +2255,7 @@
       <c r="AN26" s="18"/>
       <c r="AO26" s="19"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="17"/>
@@ -2295,7 +2298,7 @@
       <c r="AN27" s="18"/>
       <c r="AO27" s="19"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="17"/>
@@ -2338,7 +2341,7 @@
       <c r="AN28" s="18"/>
       <c r="AO28" s="19"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="17"/>
@@ -2381,7 +2384,7 @@
       <c r="AN29" s="18"/>
       <c r="AO29" s="19"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="17"/>
@@ -2424,7 +2427,7 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="19"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="17"/>
@@ -2467,7 +2470,7 @@
       <c r="AN31" s="18"/>
       <c r="AO31" s="19"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="17"/>
@@ -2510,7 +2513,7 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="19"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="1"/>
@@ -2554,7 +2557,8 @@
       <c r="AO33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
+    <mergeCell ref="AM7:AO7"/>
     <mergeCell ref="W5:AL5"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="T1:AA1"/>
@@ -2607,8 +2611,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2619,35 +2623,35 @@
   </sheetPr>
   <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="8" width="3.7109375" style="2"/>
-    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="3.7265625" style="2"/>
+    <col min="9" max="9" width="3.7265625" style="2" customWidth="1"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2655,16 +2659,16 @@
       <c r="Q1" s="41"/>
       <c r="R1" s="41"/>
       <c r="S1" s="41"/>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="46"/>
       <c r="AB1" s="41" t="s">
         <v>4</v>
       </c>
@@ -2681,28 +2685,28 @@
       </c>
       <c r="AJ1" s="41"/>
       <c r="AK1" s="41"/>
-      <c r="AL1" s="57">
+      <c r="AL1" s="42">
         <v>45566</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="41" t="s">
         <v>1</v>
       </c>
@@ -2710,16 +2714,16 @@
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="46"/>
       <c r="AB2" s="41"/>
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
@@ -2730,26 +2734,26 @@
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>
       <c r="AK2" s="41"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
       <c r="O3" s="41" t="s">
         <v>3</v>
       </c>
@@ -2758,7 +2762,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
       <c r="T3" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U3" s="38"/>
       <c r="V3" s="38"/>
@@ -2772,7 +2776,9 @@
       </c>
       <c r="AC3" s="41"/>
       <c r="AD3" s="41"/>
-      <c r="AE3" s="38"/>
+      <c r="AE3" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
       <c r="AH3" s="38"/>
@@ -2781,26 +2787,28 @@
       </c>
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
+      <c r="AL3" s="42">
+        <v>45614</v>
+      </c>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="41" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2817,7 @@
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
       <c r="T4" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U4" s="38"/>
       <c r="V4" s="38"/>
@@ -2828,19 +2836,19 @@
       <c r="AI4" s="41"/>
       <c r="AJ4" s="41"/>
       <c r="AK4" s="41"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="67"/>
@@ -2850,7 +2858,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
@@ -2884,46 +2892,46 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
       <c r="AL6" s="68"/>
       <c r="AM6" s="39" t="s">
         <v>9</v>
@@ -2931,7 +2939,7 @@
       <c r="AN6" s="39"/>
       <c r="AO6" s="39"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2974,10 +2982,10 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3018,7 +3026,7 @@
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22"/>
       <c r="B9" s="1"/>
       <c r="C9" s="58" t="s">
@@ -3062,7 +3070,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22"/>
       <c r="B10" s="1"/>
       <c r="C10" s="61"/>
@@ -3104,7 +3112,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="22" t="s">
@@ -3150,7 +3158,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22"/>
       <c r="B12" s="1"/>
       <c r="C12" s="22"/>
@@ -3192,11 +3200,11 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="1"/>
       <c r="C13" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3236,7 +3244,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="22"/>
       <c r="B14" s="1"/>
       <c r="C14" s="22"/>
@@ -3278,7 +3286,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="1"/>
       <c r="C15" s="22" t="s">
@@ -3322,7 +3330,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22"/>
       <c r="B16" s="1"/>
       <c r="C16" s="22"/>
@@ -3364,7 +3372,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="22" t="s">
@@ -3408,7 +3416,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22"/>
       <c r="B18" s="1"/>
       <c r="C18" s="22"/>
@@ -3450,7 +3458,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22"/>
       <c r="B19" s="1"/>
       <c r="C19" s="22"/>
@@ -3492,7 +3500,7 @@
       <c r="AM19" s="6"/>
       <c r="AO19" s="7"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="22"/>
@@ -3534,7 +3542,7 @@
       <c r="AM20" s="6"/>
       <c r="AO20" s="7"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22"/>
       <c r="B21" s="1"/>
       <c r="C21" s="22"/>
@@ -3576,7 +3584,7 @@
       <c r="AM21" s="6"/>
       <c r="AO21" s="7"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
       <c r="C22" s="22"/>
@@ -3618,7 +3626,7 @@
       <c r="AM22" s="6"/>
       <c r="AO22" s="7"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
       <c r="C23" s="22"/>
@@ -3660,7 +3668,7 @@
       <c r="AM23" s="6"/>
       <c r="AO23" s="7"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
       <c r="C24" s="22"/>
@@ -3702,7 +3710,7 @@
       <c r="AM24" s="6"/>
       <c r="AO24" s="7"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
       <c r="C25" s="22"/>
@@ -3744,7 +3752,7 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="7"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="22"/>
@@ -3786,7 +3794,7 @@
       <c r="AM26" s="6"/>
       <c r="AO26" s="7"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="22"/>
@@ -3828,7 +3836,7 @@
       <c r="AM27" s="6"/>
       <c r="AO27" s="7"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="22"/>
@@ -3870,7 +3878,7 @@
       <c r="AM28" s="6"/>
       <c r="AO28" s="7"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22"/>
       <c r="B29" s="1"/>
       <c r="C29" s="22"/>
@@ -3912,7 +3920,7 @@
       <c r="AM29" s="6"/>
       <c r="AO29" s="7"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33"/>
@@ -3954,7 +3962,7 @@
       <c r="AM30" s="6"/>
       <c r="AO30" s="7"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -3996,10 +4004,10 @@
       <c r="AM31" s="6"/>
       <c r="AO31" s="7"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4040,7 +4048,7 @@
       <c r="AM32" s="6"/>
       <c r="AO32" s="7"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
       <c r="C33" s="58" t="s">
@@ -4084,7 +4092,7 @@
       <c r="AM33" s="6"/>
       <c r="AO33" s="7"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22"/>
       <c r="B34" s="1"/>
       <c r="C34" s="61"/>
@@ -4126,7 +4134,7 @@
       <c r="AM34" s="6"/>
       <c r="AO34" s="7"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="22"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="s">
@@ -4172,7 +4180,7 @@
       <c r="AM35" s="6"/>
       <c r="AO35" s="7"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
       <c r="C36" s="22"/>
@@ -4214,11 +4222,11 @@
       <c r="AM36" s="6"/>
       <c r="AO36" s="7"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
       <c r="C37" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4258,7 +4266,7 @@
       <c r="AM37" s="6"/>
       <c r="AO37" s="7"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
       <c r="C38" s="22"/>
@@ -4300,7 +4308,7 @@
       <c r="AM38" s="6"/>
       <c r="AO38" s="7"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
       <c r="C39" s="22" t="s">
@@ -4344,7 +4352,7 @@
       <c r="AM39" s="6"/>
       <c r="AO39" s="7"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
       <c r="C40" s="22"/>
@@ -4386,7 +4394,7 @@
       <c r="AM40" s="6"/>
       <c r="AO40" s="7"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="22"/>
       <c r="B41" s="1"/>
       <c r="C41" s="22" t="s">
@@ -4430,7 +4438,7 @@
       <c r="AM41" s="6"/>
       <c r="AO41" s="7"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22"/>
       <c r="B42" s="1"/>
       <c r="C42" s="22"/>
@@ -4472,7 +4480,7 @@
       <c r="AM42" s="6"/>
       <c r="AO42" s="7"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22"/>
       <c r="B43" s="1"/>
       <c r="C43" s="22"/>
@@ -4514,7 +4522,7 @@
       <c r="AM43" s="6"/>
       <c r="AO43" s="7"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22"/>
       <c r="B44" s="1"/>
       <c r="C44" s="22"/>
@@ -4556,7 +4564,7 @@
       <c r="AM44" s="6"/>
       <c r="AO44" s="7"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="22"/>
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
@@ -4598,7 +4606,7 @@
       <c r="AM45" s="6"/>
       <c r="AO45" s="7"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="22"/>
       <c r="B46" s="1"/>
       <c r="C46" s="22"/>
@@ -4640,7 +4648,7 @@
       <c r="AM46" s="6"/>
       <c r="AO46" s="7"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="22"/>
@@ -4682,7 +4690,7 @@
       <c r="AM47" s="6"/>
       <c r="AO47" s="7"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="22"/>
       <c r="B48" s="1"/>
       <c r="C48" s="22"/>
@@ -4724,7 +4732,7 @@
       <c r="AM48" s="6"/>
       <c r="AO48" s="7"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="22"/>
       <c r="B49" s="1"/>
       <c r="C49" s="22"/>
@@ -4766,7 +4774,7 @@
       <c r="AM49" s="6"/>
       <c r="AO49" s="7"/>
     </row>
-    <row r="50" spans="1:41" ht="20" customHeight="1">
+    <row r="50" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
       <c r="C50" s="22"/>
@@ -4808,7 +4816,7 @@
       <c r="AM50" s="6"/>
       <c r="AO50" s="7"/>
     </row>
-    <row r="51" spans="1:41" ht="20" customHeight="1">
+    <row r="51" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
       <c r="C51" s="22"/>
@@ -4850,7 +4858,7 @@
       <c r="AM51" s="6"/>
       <c r="AO51" s="7"/>
     </row>
-    <row r="52" spans="1:41" ht="20" customHeight="1">
+    <row r="52" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
       <c r="C52" s="22"/>
@@ -4892,7 +4900,7 @@
       <c r="AM52" s="6"/>
       <c r="AO52" s="7"/>
     </row>
-    <row r="53" spans="1:41" ht="20" customHeight="1">
+    <row r="53" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
       <c r="C53" s="22"/>
@@ -4934,7 +4942,7 @@
       <c r="AM53" s="6"/>
       <c r="AO53" s="7"/>
     </row>
-    <row r="54" spans="1:41" ht="20" customHeight="1">
+    <row r="54" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="22"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33"/>
@@ -4976,7 +4984,7 @@
       <c r="AM54" s="6"/>
       <c r="AO54" s="7"/>
     </row>
-    <row r="55" spans="1:41" ht="20" customHeight="1">
+    <row r="55" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -5018,7 +5026,7 @@
       <c r="AM55" s="6"/>
       <c r="AO55" s="7"/>
     </row>
-    <row r="56" spans="1:41" ht="20" customHeight="1">
+    <row r="56" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="22"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5060,7 +5068,7 @@
       <c r="AM56" s="6"/>
       <c r="AO56" s="7"/>
     </row>
-    <row r="57" spans="1:41" ht="20" customHeight="1">
+    <row r="57" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="23"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -5133,7 +5141,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5145,233 +5153,237 @@
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="3.7109375" style="2"/>
+    <col min="1" max="9" width="3.7265625" style="2"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="86" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="43" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="80" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="95" t="s">
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="100" t="s">
         <v>33</v>
       </c>
       <c r="AF1" s="37"/>
       <c r="AG1" s="37"/>
       <c r="AH1" s="79"/>
-      <c r="AI1" s="80" t="s">
+      <c r="AI1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="98">
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="83">
         <v>45566</v>
       </c>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="100"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="86" t="s">
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="85"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="43" t="s">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="99"/>
       <c r="AE2" s="72"/>
       <c r="AF2" s="73"/>
       <c r="AG2" s="73"/>
       <c r="AH2" s="74"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="103"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="86" t="s">
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="88"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="52"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91"/>
       <c r="T3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="100" t="s">
+        <v>43</v>
+      </c>
       <c r="AF3" s="37"/>
       <c r="AG3" s="37"/>
       <c r="AH3" s="79"/>
-      <c r="AI3" s="80" t="s">
+      <c r="AI3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="91"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="86" t="s">
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="83">
+        <v>45614</v>
+      </c>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="102"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="88"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="91"/>
       <c r="T4" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="85"/>
+        <v>42</v>
+      </c>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="99"/>
       <c r="AE4" s="72"/>
       <c r="AF4" s="73"/>
       <c r="AG4" s="73"/>
       <c r="AH4" s="74"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="94"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="105"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="68"/>
       <c r="D5" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="67"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="47"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="68"/>
       <c r="J5" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -5405,58 +5417,58 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="68"/>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
       <c r="AE6" s="68"/>
-      <c r="AF6" s="46" t="s">
+      <c r="AF6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
       <c r="AL6" s="68"/>
-      <c r="AM6" s="46" t="s">
+      <c r="AM6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="47"/>
+      <c r="AN6" s="48"/>
       <c r="AO6" s="68"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
@@ -5499,7 +5511,7 @@
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
@@ -5508,7 +5520,9 @@
       <c r="F8" s="76"/>
       <c r="G8" s="76"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -5538,11 +5552,13 @@
       <c r="AJ8" s="70"/>
       <c r="AK8" s="70"/>
       <c r="AL8" s="71"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="14"/>
-    </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+      <c r="AM8" s="80">
+        <v>45614</v>
+      </c>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="82"/>
+    </row>
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
@@ -5585,7 +5601,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="75"/>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
@@ -5628,7 +5644,7 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -5671,7 +5687,7 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="75"/>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
@@ -5714,7 +5730,7 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="75"/>
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
@@ -5757,7 +5773,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
@@ -5800,7 +5816,7 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="75"/>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
@@ -5843,7 +5859,7 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="75"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
@@ -5886,7 +5902,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="75"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
@@ -5929,7 +5945,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="75"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
@@ -5972,7 +5988,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
@@ -6015,7 +6031,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
@@ -6058,7 +6074,7 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
@@ -6101,7 +6117,7 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
@@ -6144,7 +6160,7 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
@@ -6187,7 +6203,7 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
@@ -6230,7 +6246,7 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
@@ -6273,7 +6289,7 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
@@ -6316,7 +6332,7 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
@@ -6359,7 +6375,7 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="69"/>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
@@ -6402,7 +6418,7 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="69"/>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
@@ -6445,7 +6461,7 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="14"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="69"/>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -6488,7 +6504,7 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="69"/>
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
@@ -6531,7 +6547,7 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="69"/>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -6574,7 +6590,7 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="69"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
@@ -6617,7 +6633,7 @@
       <c r="AN33" s="1"/>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="69"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -6660,7 +6676,7 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="14"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -6704,7 +6720,7 @@
       <c r="AO35" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="84">
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AA1"/>
@@ -6734,6 +6750,7 @@
     <mergeCell ref="AF7:AL7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="AM8:AO8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="AF9:AL9"/>
     <mergeCell ref="A10:G10"/>
@@ -6791,6 +6808,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>